--- a/src/sales_price_slc.xlsx
+++ b/src/sales_price_slc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vla\git\neumont-college-teaching-sample\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentla/git/neumont-college-teaching-sample/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14851316-7638-4553-B4F5-8B0218C303EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AF073F-9A09-B940-9399-6B692EAE8C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="1755" windowWidth="15330" windowHeight="10890" xr2:uid="{52A3140E-D0E2-4475-AE6A-D383D32873AA}"/>
+    <workbookView xWindow="7360" yWindow="1760" windowWidth="15340" windowHeight="10900" xr2:uid="{52A3140E-D0E2-4475-AE6A-D383D32873AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -243,7 +243,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -561,18 +561,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF10F6FC-09BA-4091-87F8-FE8664D52F8A}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -606,7 +606,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -623,7 +623,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -640,7 +640,7 @@
         <v>551000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -657,7 +657,7 @@
         <v>620000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -674,7 +674,7 @@
         <v>585000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -691,7 +691,7 @@
         <v>519000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -708,7 +708,7 @@
         <v>549000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -725,7 +725,7 @@
         <v>735000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -742,7 +742,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -759,7 +759,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -776,7 +776,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -793,7 +793,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -810,7 +810,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -827,7 +827,7 @@
         <v>889700</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -844,7 +844,7 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -861,7 +861,7 @@
         <v>735000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -878,7 +878,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -895,7 +895,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -912,7 +912,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -929,7 +929,7 @@
         <v>1190000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -946,7 +946,7 @@
         <v>1385000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -963,7 +963,7 @@
         <v>332100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -980,7 +980,7 @@
         <v>582500</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -997,7 +997,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>785000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>349900</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>1044000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>337948</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>990000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>699000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>415400</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>364900</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>619500</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>525000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>886900</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>793700</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>682200</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>767800</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>593500</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>309800</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>621000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>782200</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>711100</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>628300</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>698600</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>1145200</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>731300</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>624500</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
